--- a/data/profiles/xlsx/bluff/profile 31-1 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 31-1 graph.xlsx
@@ -20688,11 +20688,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27055675"/>
-        <c:axId val="22799389"/>
+        <c:axId val="22205185"/>
+        <c:axId val="8088716"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27055675"/>
+        <c:axId val="22205185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20727,12 +20727,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22799389"/>
+        <c:crossAx val="8088716"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22799389"/>
+        <c:axId val="8088716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20776,7 +20776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27055675"/>
+        <c:crossAx val="22205185"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
